--- a/RPD/Resources/teachers.xlsx
+++ b/RPD/Resources/teachers.xlsx
@@ -372,11 +372,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -385,7 +383,12 @@
     <col min="3" max="3" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -393,7 +396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -401,7 +404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>

--- a/RPD/Resources/teachers.xlsx
+++ b/RPD/Resources/teachers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\music\RPD (2)\RPD\RPD\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Таня\Desktop\RPD\RPD\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>Беднякова Татьяна Михайловна</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Миловидова Анна Александровна</t>
   </si>
   <si>
-    <t>rusakova.helena@gmail.com</t>
-  </si>
-  <si>
     <t>Русакова Елена Александровна</t>
   </si>
   <si>
@@ -42,13 +39,700 @@
   </si>
   <si>
     <t>milanna@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>Аверичев Георгий Станиславович</t>
+  </si>
+  <si>
+    <t>Аверкин Алексей Николаевич</t>
+  </si>
+  <si>
+    <t>Азаров Владислав Игоревич</t>
+  </si>
+  <si>
+    <t>Антоненков Евгений Геннадьевич</t>
+  </si>
+  <si>
+    <t>Балашова Марина Владимировна</t>
+  </si>
+  <si>
+    <t>Бархатова Ирина Александровна</t>
+  </si>
+  <si>
+    <t>Баулина Людмила Викторовна</t>
+  </si>
+  <si>
+    <t>Белов Михаил Александрович</t>
+  </si>
+  <si>
+    <t>Белов Олег Валерьевич</t>
+  </si>
+  <si>
+    <t>Бобылева София Вадимовна</t>
+  </si>
+  <si>
+    <t>Болонкина Елена Александровна</t>
+  </si>
+  <si>
+    <t>Бугров Алексей Николаевич</t>
+  </si>
+  <si>
+    <t>Булякова Ирина Александровна</t>
+  </si>
+  <si>
+    <t>Возвышаева Надежда Андреевна</t>
+  </si>
+  <si>
+    <t>Гутовский Дмитрий Игоревич</t>
+  </si>
+  <si>
+    <t>Двинских Владимир Васильевич</t>
+  </si>
+  <si>
+    <t>Дедович Татьяна Григорьевна</t>
+  </si>
+  <si>
+    <t>Добрынин Владимир Николаевич</t>
+  </si>
+  <si>
+    <t>Дорохин Виктор Александрович</t>
+  </si>
+  <si>
+    <t>Думбрайс Крыстына Ольгертовна</t>
+  </si>
+  <si>
+    <t>Ершов Евгений Анатольевич</t>
+  </si>
+  <si>
+    <t>Ершов Николай Михайлович</t>
+  </si>
+  <si>
+    <t>Жабицкая Евгения Игоревна</t>
+  </si>
+  <si>
+    <t>Жаткина Кристина Николаевна</t>
+  </si>
+  <si>
+    <t>Задорожный Александр Михайлович</t>
+  </si>
+  <si>
+    <t>Зеленков Юрий Андреевич</t>
+  </si>
+  <si>
+    <t>Зинченко Дмитрий Александровмч</t>
+  </si>
+  <si>
+    <t>Иванцова Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Калинина Марина Юрьевна</t>
+  </si>
+  <si>
+    <t>Кирпичева Елена Юрьевна</t>
+  </si>
+  <si>
+    <t>Колбенко Екатерина Викторовна</t>
+  </si>
+  <si>
+    <t>Кореньков Владимир Васильевич</t>
+  </si>
+  <si>
+    <t>Крейдер Оксана Александровна</t>
+  </si>
+  <si>
+    <t>Крылова Дарья Андреевна</t>
+  </si>
+  <si>
+    <t>Крюков Юрий Алексеевич</t>
+  </si>
+  <si>
+    <t>Кудрявцева Дарья Владимировна</t>
+  </si>
+  <si>
+    <t>Кузнецов Борис Константинович</t>
+  </si>
+  <si>
+    <t>Лишилин Михаил Владимирович</t>
+  </si>
+  <si>
+    <t>Лукьянов Константин Валерьевич</t>
+  </si>
+  <si>
+    <t>Лупанов Павел Евгеньевич</t>
+  </si>
+  <si>
+    <t>Любовинкина Наталья Яковлевна</t>
+  </si>
+  <si>
+    <t>Мажитова Елена</t>
+  </si>
+  <si>
+    <t>Малинина Светлана Сергеевна</t>
+  </si>
+  <si>
+    <t>Махалкина Татьяна Олеговна</t>
+  </si>
+  <si>
+    <t>Мельникова Ольга Игоревна</t>
+  </si>
+  <si>
+    <t>Минзов Анатолий Степанович</t>
+  </si>
+  <si>
+    <t>Михайлов Игорь Ефимович</t>
+  </si>
+  <si>
+    <t>Монахов Дмитрий Владимирович</t>
+  </si>
+  <si>
+    <t>Мороз Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Мошковский Иван Владимирович</t>
+  </si>
+  <si>
+    <t>Мурадян Арутюн Ваникович</t>
+  </si>
+  <si>
+    <t>Осипов Павел Александрович</t>
+  </si>
+  <si>
+    <t>Ососков Геннадий Алексеевич</t>
+  </si>
+  <si>
+    <t>Пелеванюк Игорь Станиславович</t>
+  </si>
+  <si>
+    <t>Полуян Сергей Владимирович</t>
+  </si>
+  <si>
+    <t>Потемкина Снежана Владиславовна</t>
+  </si>
+  <si>
+    <t>Прогулова Татьяна Борисовна</t>
+  </si>
+  <si>
+    <t>Решетников Андрей Геннадьевич</t>
+  </si>
+  <si>
+    <t>Решетников Геннадий Павлович</t>
+  </si>
+  <si>
+    <t>Роенко Анна Олеговна</t>
+  </si>
+  <si>
+    <t>Рысева Ольга Алексеевна</t>
+  </si>
+  <si>
+    <t>Рябов Никита Владимирович</t>
+  </si>
+  <si>
+    <t>Савватеева Татьяна Петровна</t>
+  </si>
+  <si>
+    <t>Сакрюкин Сергей Васильевич</t>
+  </si>
+  <si>
+    <t>Самойлов Юрий Евгеньевич</t>
+  </si>
+  <si>
+    <t>Сидорова Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Смагин Василий Денисович</t>
+  </si>
+  <si>
+    <t>Смирнова Янина Валерьевна</t>
+  </si>
+  <si>
+    <t>Соколов Алексей Сергеевич</t>
+  </si>
+  <si>
+    <t>Станкус Алексей Сергеевич</t>
+  </si>
+  <si>
+    <t>Стрельцова Оксана Ивановна</t>
+  </si>
+  <si>
+    <t>Сычев Петр Павлович</t>
+  </si>
+  <si>
+    <t>Таначева Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Тималина Елена Юрьевна</t>
+  </si>
+  <si>
+    <t>Тимонина Любовь Сергеевна</t>
+  </si>
+  <si>
+    <t>Токарева Надежда Александровна</t>
+  </si>
+  <si>
+    <t>Тюпикова Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>Тятюшкина Ольга Юрьевна</t>
+  </si>
+  <si>
+    <t>Ульянов Сергей Викторович</t>
+  </si>
+  <si>
+    <t>Учкина Наталья Александровна</t>
+  </si>
+  <si>
+    <t>Филозова Ирина Анатольевна</t>
+  </si>
+  <si>
+    <t>Черемисина Евгения Наумовна</t>
+  </si>
+  <si>
+    <t>Петров Андрей Евгеньевич</t>
+  </si>
+  <si>
+    <t>Суханов Михаил Георгиевич</t>
+  </si>
+  <si>
+    <t>Шамаева Екатерина Федоровна</t>
+  </si>
+  <si>
+    <t>Орлова Елена Роальдовна</t>
+  </si>
+  <si>
+    <t>Айриян Александр Сержикович</t>
+  </si>
+  <si>
+    <t>Айрян Эдик Арташевич</t>
+  </si>
+  <si>
+    <t>Башкирова Юлия Александровна</t>
+  </si>
+  <si>
+    <t>Бородин Владимир Алексеевич</t>
+  </si>
+  <si>
+    <t>Возакова Алёна Сергеевна</t>
+  </si>
+  <si>
+    <t>Голяткина Любовь Игоревна</t>
+  </si>
+  <si>
+    <t>Дзюба Денис Масудуллаевич</t>
+  </si>
+  <si>
+    <t>Епишина Екатерина Викторовна</t>
+  </si>
+  <si>
+    <t>Еремина Яна Вячеславовна</t>
+  </si>
+  <si>
+    <t>Зрелов Петр Валентинович</t>
+  </si>
+  <si>
+    <t>Ильина Анна Владимировна</t>
+  </si>
+  <si>
+    <t>Кадочников Иван Сергеевич</t>
+  </si>
+  <si>
+    <t>Кафтырева Александра Андреевна</t>
+  </si>
+  <si>
+    <t>Кирова Дарья Львовна</t>
+  </si>
+  <si>
+    <t>Кисеева Виктория Ильинична</t>
+  </si>
+  <si>
+    <t>Кравец Алла Григорьевна</t>
+  </si>
+  <si>
+    <t>Кузнецов Олег Леонидович</t>
+  </si>
+  <si>
+    <t>Нилушкова Полина Евгеньевна</t>
+  </si>
+  <si>
+    <t>Подгорный Сергей Александрович</t>
+  </si>
+  <si>
+    <t>Порымов Иван Евгеньевич</t>
+  </si>
+  <si>
+    <t>Пряхин Вадим Николаевич</t>
+  </si>
+  <si>
+    <t>Резвая Екатерина Петровна</t>
+  </si>
+  <si>
+    <t>Рулёв Артём Аркадьевич</t>
+  </si>
+  <si>
+    <t>Свистунова Лидия Васильевна</t>
+  </si>
+  <si>
+    <t>Смагина Елена Павловна</t>
+  </si>
+  <si>
+    <t>Смирнов Даниил Павлович</t>
+  </si>
+  <si>
+    <t>Тарасов Евгений Борисович</t>
+  </si>
+  <si>
+    <t>Теряев Лев Николаевич</t>
+  </si>
+  <si>
+    <t>Филин Андрей Викторович</t>
+  </si>
+  <si>
+    <t>averich@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>averkin@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>antonenkov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>balashova.m.v@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>baria@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>BaulinaLV@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>mbelov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>o_belov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>bobyleva.s.v@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>bolonkina@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>bugrov2018@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>buljakova@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>vozakova.a.s@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>vozvysh@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>dimgut@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>dww@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>tdedovich@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>arbatsolo@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>dorohin@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>dumbrajs.k.o@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>eershov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>ershovnm@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>evgeniya.zhabitskaya@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>zhatkina.k.n@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>alex.zador@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>zelenkov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>zda.asp@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>o_olga@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>kalinina@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>daryap@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>kirphel@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>ekolbenko@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>kreider.o@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>kua@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>d.kudriavtseva@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>bob@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>olk@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>lishi@uni-dubna.ru или help.kadry@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>luky@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>lupanov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>natali@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>mahalkina.t@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>oimelnk@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>minzovas@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>mikhi@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>moroz@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>mivv.th@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>muradian@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>e_orlova@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>pavel-osipov@uni-dubna.ru
+pavel4650@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>ososkov.g@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>pelei@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>petrov.a.e@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>podgornyi.s.a@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>polsv.08@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>snezhana@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>progulov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>reshag.04@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>reshetgp@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>roenko.a.o@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>isau@uni-dubna.ru
+rusakova@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>olga_sdo@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>ryabov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>savvateeva@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>sakrukin.s@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>samoilov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>lidiya_sdo@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>sidorova.o.v@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>smagin.vasily@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>epyakusheva@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>smirnova.ya.v@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>soaa.16@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>stankus.a.s@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>streltsova.o.i@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>m_sukhanov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>suchev@uni-dubna.ru
+sychov@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>tanacheva@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arvr@uni-dubna.ru </t>
+  </si>
+  <si>
+    <t>timalina.e.v@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>timonina@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>tokareva@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>tyupikova@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>tyatyushkina@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>ulyanovsv@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>lulina@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>irina_filozova@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>chere@uni-dubna.ru</t>
+  </si>
+  <si>
+    <t>r3dok1@gmail.com</t>
+  </si>
+  <si>
+    <t>ayriyan@jinr.ru</t>
+  </si>
+  <si>
+    <t>ayrjan@jinr.ru</t>
+  </si>
+  <si>
+    <t>yuliya.neskazhu.1999@mail.ru</t>
+  </si>
+  <si>
+    <t>bor@ezan.ac.ru</t>
+  </si>
+  <si>
+    <t>lubovgolyatkina@mail.ru</t>
+  </si>
+  <si>
+    <t>denndrangheta@gmail.com</t>
+  </si>
+  <si>
+    <t>e.epishina@nordavind.ru</t>
+  </si>
+  <si>
+    <t>eremina.interior@gmail.com</t>
+  </si>
+  <si>
+    <t>zrelov@jinr.ru</t>
+  </si>
+  <si>
+    <t>ttrnkv75@yandex.ru</t>
+  </si>
+  <si>
+    <t>kadivas@jinr.ru</t>
+  </si>
+  <si>
+    <t>akaftyreva@mail.ru</t>
+  </si>
+  <si>
+    <t>vika.kiseeva@yandex.ru</t>
+  </si>
+  <si>
+    <t>korenkov@jinr.ru</t>
+  </si>
+  <si>
+    <t>agk@gde.ru</t>
+  </si>
+  <si>
+    <t>darkrylova@rambler.ru</t>
+  </si>
+  <si>
+    <t>emazhitova@jinr.ru</t>
+  </si>
+  <si>
+    <t>p.nilushkova@gmail.com</t>
+  </si>
+  <si>
+    <t>porymovivan@gmail.com</t>
+  </si>
+  <si>
+    <t>vpryahin@inbox.ru</t>
+  </si>
+  <si>
+    <t>rezvaya2016@gmail.com</t>
+  </si>
+  <si>
+    <t>rulevartem18@gmail.com</t>
+  </si>
+  <si>
+    <t>stilwuc@mail.ru</t>
+  </si>
+  <si>
+    <t>etarassovet@gmail.com</t>
+  </si>
+  <si>
+    <t>shamef-kate@yandex.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +750,79 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -83,14 +830,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -372,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,39 +1258,4442 @@
     <col min="3" max="3" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="66" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C89" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="10"/>
+    </row>
+    <row r="117" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="9"/>
+      <c r="C121" s="13"/>
+    </row>
+    <row r="122" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="4"/>
+      <c r="C122" s="11"/>
+    </row>
+    <row r="123" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="4"/>
+      <c r="C123" s="11"/>
+    </row>
+    <row r="124" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="4"/>
+      <c r="C124" s="11"/>
+    </row>
+    <row r="125" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="4"/>
+      <c r="C125" s="11"/>
+    </row>
+    <row r="126" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="4"/>
+      <c r="C126" s="11"/>
+    </row>
+    <row r="127" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="4"/>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="4"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="4"/>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="4"/>
+      <c r="C130" s="11"/>
+    </row>
+    <row r="131" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="4"/>
+      <c r="C131" s="11"/>
+    </row>
+    <row r="132" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="4"/>
+      <c r="C132" s="11"/>
+    </row>
+    <row r="133" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="4"/>
+      <c r="C133" s="11"/>
+    </row>
+    <row r="134" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="4"/>
+      <c r="C134" s="11"/>
+    </row>
+    <row r="135" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="4"/>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+    </row>
+    <row r="140" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+    </row>
+    <row r="142" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+    </row>
+    <row r="143" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+    </row>
+    <row r="144" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+    </row>
+    <row r="145" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+    </row>
+    <row r="146" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+    </row>
+    <row r="147" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+    </row>
+    <row r="155" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+    </row>
+    <row r="156" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+    </row>
+    <row r="157" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+    </row>
+    <row r="158" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+    </row>
+    <row r="162" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+    </row>
+    <row r="166" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+    </row>
+    <row r="167" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+    </row>
+    <row r="171" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+    </row>
+    <row r="172" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+    </row>
+    <row r="173" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+    </row>
+    <row r="174" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+    </row>
+    <row r="175" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+    </row>
+    <row r="176" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+    </row>
+    <row r="177" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+    </row>
+    <row r="178" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+    </row>
+    <row r="180" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+    </row>
+    <row r="181" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+    </row>
+    <row r="182" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+    </row>
+    <row r="183" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+    </row>
+    <row r="184" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+    </row>
+    <row r="185" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+    </row>
+    <row r="187" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+    </row>
+    <row r="188" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+    </row>
+    <row r="189" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+    </row>
+    <row r="190" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+    </row>
+    <row r="191" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+    </row>
+    <row r="192" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+    </row>
+    <row r="193" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+    </row>
+    <row r="194" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+    </row>
+    <row r="195" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+    </row>
+    <row r="196" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+    </row>
+    <row r="197" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+    </row>
+    <row r="198" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+    </row>
+    <row r="199" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+    </row>
+    <row r="200" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+    </row>
+    <row r="201" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+    </row>
+    <row r="202" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+    </row>
+    <row r="203" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+    </row>
+    <row r="204" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+    </row>
+    <row r="205" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+    </row>
+    <row r="206" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+    </row>
+    <row r="207" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+    </row>
+    <row r="208" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+    </row>
+    <row r="209" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+    </row>
+    <row r="210" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+    </row>
+    <row r="211" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+    </row>
+    <row r="212" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+    </row>
+    <row r="213" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+    </row>
+    <row r="214" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+    </row>
+    <row r="215" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+    </row>
+    <row r="216" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+    </row>
+    <row r="217" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+    </row>
+    <row r="218" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+    </row>
+    <row r="219" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+    </row>
+    <row r="220" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+    </row>
+    <row r="221" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+    </row>
+    <row r="222" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+    </row>
+    <row r="223" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+    </row>
+    <row r="224" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+    </row>
+    <row r="225" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+    </row>
+    <row r="226" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+    </row>
+    <row r="227" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+    </row>
+    <row r="228" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+    </row>
+    <row r="231" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+    </row>
+    <row r="235" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+    </row>
+    <row r="238" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+    </row>
+    <row r="239" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+    </row>
+    <row r="240" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+    </row>
+    <row r="243" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+    </row>
+    <row r="244" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+    </row>
+    <row r="245" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+    </row>
+    <row r="247" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+    </row>
+    <row r="249" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+    </row>
+    <row r="252" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+    </row>
+    <row r="253" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+    </row>
+    <row r="254" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+    </row>
+    <row r="255" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+    </row>
+    <row r="256" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+    </row>
+    <row r="257" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+    </row>
+    <row r="258" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+    </row>
+    <row r="259" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+    </row>
+    <row r="260" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+    </row>
+    <row r="261" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+    </row>
+    <row r="262" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+    </row>
+    <row r="263" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+    </row>
+    <row r="264" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+    </row>
+    <row r="265" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+    </row>
+    <row r="266" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+    </row>
+    <row r="267" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+    </row>
+    <row r="268" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+    </row>
+    <row r="269" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+    </row>
+    <row r="270" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+    </row>
+    <row r="271" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+    </row>
+    <row r="272" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+    </row>
+    <row r="273" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+    </row>
+    <row r="274" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+    </row>
+    <row r="275" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+    </row>
+    <row r="276" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+    </row>
+    <row r="277" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+    </row>
+    <row r="278" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+    </row>
+    <row r="279" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+    </row>
+    <row r="280" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+    </row>
+    <row r="281" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+    </row>
+    <row r="282" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+    </row>
+    <row r="283" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+    </row>
+    <row r="284" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+    </row>
+    <row r="285" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+    </row>
+    <row r="288" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+    </row>
+    <row r="289" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+    </row>
+    <row r="291" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+    </row>
+    <row r="292" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+    </row>
+    <row r="293" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+    </row>
+    <row r="294" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+    </row>
+    <row r="295" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+    </row>
+    <row r="296" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
+    </row>
+    <row r="297" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
+    </row>
+    <row r="298" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="5"/>
+      <c r="C298" s="5"/>
+    </row>
+    <row r="299" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="5"/>
+      <c r="C299" s="5"/>
+    </row>
+    <row r="300" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="5"/>
+      <c r="C300" s="5"/>
+    </row>
+    <row r="301" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="5"/>
+      <c r="C301" s="5"/>
+    </row>
+    <row r="302" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
+    </row>
+    <row r="303" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
+    </row>
+    <row r="304" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="5"/>
+      <c r="C304" s="5"/>
+    </row>
+    <row r="305" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
+    </row>
+    <row r="306" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
+    </row>
+    <row r="307" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+    </row>
+    <row r="308" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+    </row>
+    <row r="309" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+    </row>
+    <row r="310" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+    </row>
+    <row r="311" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+    </row>
+    <row r="312" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+    </row>
+    <row r="313" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+    </row>
+    <row r="314" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+    </row>
+    <row r="315" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+    </row>
+    <row r="316" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+    </row>
+    <row r="317" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+    </row>
+    <row r="318" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="5"/>
+      <c r="C318" s="5"/>
+    </row>
+    <row r="319" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+    </row>
+    <row r="320" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+    </row>
+    <row r="321" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+    </row>
+    <row r="322" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+    </row>
+    <row r="323" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+    </row>
+    <row r="324" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+    </row>
+    <row r="325" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="5"/>
+      <c r="C325" s="5"/>
+    </row>
+    <row r="326" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="5"/>
+      <c r="C326" s="5"/>
+    </row>
+    <row r="327" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="5"/>
+      <c r="C327" s="5"/>
+    </row>
+    <row r="328" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="5"/>
+      <c r="C328" s="5"/>
+    </row>
+    <row r="329" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="5"/>
+      <c r="C329" s="5"/>
+    </row>
+    <row r="330" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="5"/>
+      <c r="C330" s="5"/>
+    </row>
+    <row r="331" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="5"/>
+      <c r="C331" s="5"/>
+    </row>
+    <row r="332" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="5"/>
+      <c r="C332" s="5"/>
+    </row>
+    <row r="333" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
+    </row>
+    <row r="334" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="5"/>
+      <c r="C334" s="5"/>
+    </row>
+    <row r="335" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B335" s="5"/>
+      <c r="C335" s="5"/>
+    </row>
+    <row r="336" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B336" s="5"/>
+      <c r="C336" s="5"/>
+    </row>
+    <row r="337" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
+    </row>
+    <row r="338" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+    </row>
+    <row r="339" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+    </row>
+    <row r="340" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
+    </row>
+    <row r="341" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+    </row>
+    <row r="342" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+    </row>
+    <row r="343" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+    </row>
+    <row r="344" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+    </row>
+    <row r="345" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+    </row>
+    <row r="346" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+    </row>
+    <row r="347" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+    </row>
+    <row r="348" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+    </row>
+    <row r="349" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="5"/>
+      <c r="C349" s="5"/>
+    </row>
+    <row r="350" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+    </row>
+    <row r="351" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+    </row>
+    <row r="352" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
+    </row>
+    <row r="353" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+    </row>
+    <row r="354" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+    </row>
+    <row r="355" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+    </row>
+    <row r="356" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
+    </row>
+    <row r="357" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
+    </row>
+    <row r="358" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+    </row>
+    <row r="359" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
+    </row>
+    <row r="360" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+    </row>
+    <row r="361" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="5"/>
+      <c r="C361" s="5"/>
+    </row>
+    <row r="362" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
+    </row>
+    <row r="363" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
+    </row>
+    <row r="364" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
+    </row>
+    <row r="365" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="5"/>
+      <c r="C365" s="5"/>
+    </row>
+    <row r="366" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
+    </row>
+    <row r="367" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
+    </row>
+    <row r="368" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="5"/>
+      <c r="C368" s="5"/>
+    </row>
+    <row r="369" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
+    </row>
+    <row r="370" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="5"/>
+      <c r="C370" s="5"/>
+    </row>
+    <row r="371" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="5"/>
+      <c r="C371" s="5"/>
+    </row>
+    <row r="372" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="5"/>
+      <c r="C372" s="5"/>
+    </row>
+    <row r="373" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="5"/>
+      <c r="C373" s="5"/>
+    </row>
+    <row r="374" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="5"/>
+      <c r="C374" s="5"/>
+    </row>
+    <row r="375" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="5"/>
+      <c r="C375" s="5"/>
+    </row>
+    <row r="376" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="5"/>
+      <c r="C376" s="5"/>
+    </row>
+    <row r="377" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
+    </row>
+    <row r="378" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
+    </row>
+    <row r="379" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+    </row>
+    <row r="380" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
+    </row>
+    <row r="381" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="5"/>
+      <c r="C381" s="5"/>
+    </row>
+    <row r="382" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="5"/>
+      <c r="C382" s="5"/>
+    </row>
+    <row r="383" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="5"/>
+      <c r="C383" s="5"/>
+    </row>
+    <row r="384" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="5"/>
+      <c r="C384" s="5"/>
+    </row>
+    <row r="385" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="5"/>
+      <c r="C385" s="5"/>
+    </row>
+    <row r="386" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="5"/>
+      <c r="C386" s="5"/>
+    </row>
+    <row r="387" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
+    </row>
+    <row r="388" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="5"/>
+      <c r="C388" s="5"/>
+    </row>
+    <row r="389" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
+    </row>
+    <row r="390" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
+    </row>
+    <row r="391" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="5"/>
+      <c r="C391" s="5"/>
+    </row>
+    <row r="392" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="5"/>
+      <c r="C392" s="5"/>
+    </row>
+    <row r="393" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="5"/>
+      <c r="C393" s="5"/>
+    </row>
+    <row r="394" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="5"/>
+      <c r="C394" s="5"/>
+    </row>
+    <row r="395" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="5"/>
+      <c r="C395" s="5"/>
+    </row>
+    <row r="396" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="5"/>
+      <c r="C396" s="5"/>
+    </row>
+    <row r="397" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="5"/>
+      <c r="C397" s="5"/>
+    </row>
+    <row r="398" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B398" s="5"/>
+      <c r="C398" s="5"/>
+    </row>
+    <row r="399" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="5"/>
+      <c r="C399" s="5"/>
+    </row>
+    <row r="400" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="5"/>
+      <c r="C400" s="5"/>
+    </row>
+    <row r="401" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="5"/>
+      <c r="C401" s="5"/>
+    </row>
+    <row r="402" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
+    </row>
+    <row r="403" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="5"/>
+      <c r="C403" s="5"/>
+    </row>
+    <row r="404" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+    </row>
+    <row r="405" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
+    </row>
+    <row r="406" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="5"/>
+      <c r="C406" s="5"/>
+    </row>
+    <row r="407" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B407" s="5"/>
+      <c r="C407" s="5"/>
+    </row>
+    <row r="408" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B408" s="5"/>
+      <c r="C408" s="5"/>
+    </row>
+    <row r="409" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+    </row>
+    <row r="410" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+    </row>
+    <row r="411" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+    </row>
+    <row r="412" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+    </row>
+    <row r="413" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+    </row>
+    <row r="414" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+    </row>
+    <row r="415" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
+    </row>
+    <row r="416" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
+    </row>
+    <row r="417" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
+    </row>
+    <row r="418" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
+    </row>
+    <row r="419" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
+    </row>
+    <row r="420" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+    </row>
+    <row r="421" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="5"/>
+      <c r="C421" s="5"/>
+    </row>
+    <row r="422" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="5"/>
+      <c r="C422" s="5"/>
+    </row>
+    <row r="423" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B423" s="5"/>
+      <c r="C423" s="5"/>
+    </row>
+    <row r="424" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B424" s="5"/>
+      <c r="C424" s="5"/>
+    </row>
+    <row r="425" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B425" s="5"/>
+      <c r="C425" s="5"/>
+    </row>
+    <row r="426" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B426" s="5"/>
+      <c r="C426" s="5"/>
+    </row>
+    <row r="427" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B427" s="5"/>
+      <c r="C427" s="5"/>
+    </row>
+    <row r="428" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="5"/>
+      <c r="C428" s="5"/>
+    </row>
+    <row r="429" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="5"/>
+      <c r="C429" s="5"/>
+    </row>
+    <row r="430" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B430" s="5"/>
+      <c r="C430" s="5"/>
+    </row>
+    <row r="431" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B431" s="5"/>
+      <c r="C431" s="5"/>
+    </row>
+    <row r="432" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B432" s="5"/>
+      <c r="C432" s="5"/>
+    </row>
+    <row r="433" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B433" s="5"/>
+      <c r="C433" s="5"/>
+    </row>
+    <row r="434" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B434" s="5"/>
+      <c r="C434" s="5"/>
+    </row>
+    <row r="435" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B435" s="5"/>
+      <c r="C435" s="5"/>
+    </row>
+    <row r="436" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B436" s="5"/>
+      <c r="C436" s="5"/>
+    </row>
+    <row r="437" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B437" s="5"/>
+      <c r="C437" s="5"/>
+    </row>
+    <row r="438" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B438" s="5"/>
+      <c r="C438" s="5"/>
+    </row>
+    <row r="439" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B439" s="5"/>
+      <c r="C439" s="5"/>
+    </row>
+    <row r="440" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B440" s="5"/>
+      <c r="C440" s="5"/>
+    </row>
+    <row r="441" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B441" s="5"/>
+      <c r="C441" s="5"/>
+    </row>
+    <row r="442" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="5"/>
+      <c r="C442" s="5"/>
+    </row>
+    <row r="443" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B443" s="5"/>
+      <c r="C443" s="5"/>
+    </row>
+    <row r="444" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B444" s="5"/>
+      <c r="C444" s="5"/>
+    </row>
+    <row r="445" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B445" s="5"/>
+      <c r="C445" s="5"/>
+    </row>
+    <row r="446" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="5"/>
+      <c r="C446" s="5"/>
+    </row>
+    <row r="447" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B447" s="5"/>
+      <c r="C447" s="5"/>
+    </row>
+    <row r="448" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B448" s="5"/>
+      <c r="C448" s="5"/>
+    </row>
+    <row r="449" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B449" s="5"/>
+      <c r="C449" s="5"/>
+    </row>
+    <row r="450" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B450" s="5"/>
+      <c r="C450" s="5"/>
+    </row>
+    <row r="451" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B451" s="5"/>
+      <c r="C451" s="5"/>
+    </row>
+    <row r="452" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B452" s="5"/>
+      <c r="C452" s="5"/>
+    </row>
+    <row r="453" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B453" s="5"/>
+      <c r="C453" s="5"/>
+    </row>
+    <row r="454" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="5"/>
+      <c r="C454" s="5"/>
+    </row>
+    <row r="455" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B455" s="5"/>
+      <c r="C455" s="5"/>
+    </row>
+    <row r="456" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B456" s="5"/>
+      <c r="C456" s="5"/>
+    </row>
+    <row r="457" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B457" s="5"/>
+      <c r="C457" s="5"/>
+    </row>
+    <row r="458" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B458" s="5"/>
+      <c r="C458" s="5"/>
+    </row>
+    <row r="459" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B459" s="5"/>
+      <c r="C459" s="5"/>
+    </row>
+    <row r="460" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B460" s="5"/>
+      <c r="C460" s="5"/>
+    </row>
+    <row r="461" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="5"/>
+      <c r="C461" s="5"/>
+    </row>
+    <row r="462" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B462" s="5"/>
+      <c r="C462" s="5"/>
+    </row>
+    <row r="463" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B463" s="5"/>
+      <c r="C463" s="5"/>
+    </row>
+    <row r="464" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B464" s="5"/>
+      <c r="C464" s="5"/>
+    </row>
+    <row r="465" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B465" s="5"/>
+      <c r="C465" s="5"/>
+    </row>
+    <row r="466" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="5"/>
+      <c r="C466" s="5"/>
+    </row>
+    <row r="467" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="5"/>
+      <c r="C467" s="5"/>
+    </row>
+    <row r="468" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="5"/>
+      <c r="C468" s="5"/>
+    </row>
+    <row r="469" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="5"/>
+      <c r="C469" s="5"/>
+    </row>
+    <row r="470" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="5"/>
+      <c r="C470" s="5"/>
+    </row>
+    <row r="471" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="5"/>
+      <c r="C471" s="5"/>
+    </row>
+    <row r="472" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="5"/>
+      <c r="C472" s="5"/>
+    </row>
+    <row r="473" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="5"/>
+      <c r="C473" s="5"/>
+    </row>
+    <row r="474" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B474" s="5"/>
+      <c r="C474" s="5"/>
+    </row>
+    <row r="475" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="5"/>
+      <c r="C475" s="5"/>
+    </row>
+    <row r="476" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="5"/>
+      <c r="C476" s="5"/>
+    </row>
+    <row r="477" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="5"/>
+      <c r="C477" s="5"/>
+    </row>
+    <row r="478" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B478" s="5"/>
+      <c r="C478" s="5"/>
+    </row>
+    <row r="479" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B479" s="5"/>
+      <c r="C479" s="5"/>
+    </row>
+    <row r="480" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="5"/>
+      <c r="C480" s="5"/>
+    </row>
+    <row r="481" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="5"/>
+      <c r="C481" s="5"/>
+    </row>
+    <row r="482" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="5"/>
+      <c r="C482" s="5"/>
+    </row>
+    <row r="483" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="5"/>
+      <c r="C483" s="5"/>
+    </row>
+    <row r="484" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B484" s="5"/>
+      <c r="C484" s="5"/>
+    </row>
+    <row r="485" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B485" s="5"/>
+      <c r="C485" s="5"/>
+    </row>
+    <row r="486" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B486" s="5"/>
+      <c r="C486" s="5"/>
+    </row>
+    <row r="487" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B487" s="5"/>
+      <c r="C487" s="5"/>
+    </row>
+    <row r="488" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B488" s="5"/>
+      <c r="C488" s="5"/>
+    </row>
+    <row r="489" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="5"/>
+      <c r="C489" s="5"/>
+    </row>
+    <row r="490" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="5"/>
+      <c r="C490" s="5"/>
+    </row>
+    <row r="491" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B491" s="5"/>
+      <c r="C491" s="5"/>
+    </row>
+    <row r="492" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B492" s="5"/>
+      <c r="C492" s="5"/>
+    </row>
+    <row r="493" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B493" s="5"/>
+      <c r="C493" s="5"/>
+    </row>
+    <row r="494" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B494" s="5"/>
+      <c r="C494" s="5"/>
+    </row>
+    <row r="495" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B495" s="5"/>
+      <c r="C495" s="5"/>
+    </row>
+    <row r="496" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B496" s="5"/>
+      <c r="C496" s="5"/>
+    </row>
+    <row r="497" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="5"/>
+      <c r="C497" s="5"/>
+    </row>
+    <row r="498" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="5"/>
+      <c r="C498" s="5"/>
+    </row>
+    <row r="499" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="5"/>
+      <c r="C499" s="5"/>
+    </row>
+    <row r="500" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="5"/>
+      <c r="C500" s="5"/>
+    </row>
+    <row r="501" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="5"/>
+      <c r="C501" s="5"/>
+    </row>
+    <row r="502" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="5"/>
+      <c r="C502" s="5"/>
+    </row>
+    <row r="503" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="5"/>
+      <c r="C503" s="5"/>
+    </row>
+    <row r="504" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="5"/>
+      <c r="C504" s="5"/>
+    </row>
+    <row r="505" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="5"/>
+      <c r="C505" s="5"/>
+    </row>
+    <row r="506" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="5"/>
+      <c r="C506" s="5"/>
+    </row>
+    <row r="507" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="5"/>
+      <c r="C507" s="5"/>
+    </row>
+    <row r="508" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="5"/>
+      <c r="C508" s="5"/>
+    </row>
+    <row r="509" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="5"/>
+      <c r="C509" s="5"/>
+    </row>
+    <row r="510" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="5"/>
+      <c r="C510" s="5"/>
+    </row>
+    <row r="511" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="5"/>
+      <c r="C511" s="5"/>
+    </row>
+    <row r="512" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="5"/>
+      <c r="C512" s="5"/>
+    </row>
+    <row r="513" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="5"/>
+      <c r="C513" s="5"/>
+    </row>
+    <row r="514" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="5"/>
+      <c r="C514" s="5"/>
+    </row>
+    <row r="515" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="5"/>
+      <c r="C515" s="5"/>
+    </row>
+    <row r="516" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="5"/>
+      <c r="C516" s="5"/>
+    </row>
+    <row r="517" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="5"/>
+      <c r="C517" s="5"/>
+    </row>
+    <row r="518" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="5"/>
+      <c r="C518" s="5"/>
+    </row>
+    <row r="519" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="5"/>
+      <c r="C519" s="5"/>
+    </row>
+    <row r="520" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B520" s="5"/>
+      <c r="C520" s="5"/>
+    </row>
+    <row r="521" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B521" s="5"/>
+      <c r="C521" s="5"/>
+    </row>
+    <row r="522" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B522" s="5"/>
+      <c r="C522" s="5"/>
+    </row>
+    <row r="523" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B523" s="5"/>
+      <c r="C523" s="5"/>
+    </row>
+    <row r="524" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="5"/>
+      <c r="C524" s="5"/>
+    </row>
+    <row r="525" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="5"/>
+      <c r="C525" s="5"/>
+    </row>
+    <row r="526" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B526" s="5"/>
+      <c r="C526" s="5"/>
+    </row>
+    <row r="527" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B527" s="5"/>
+      <c r="C527" s="5"/>
+    </row>
+    <row r="528" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B528" s="5"/>
+      <c r="C528" s="5"/>
+    </row>
+    <row r="529" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B529" s="5"/>
+      <c r="C529" s="5"/>
+    </row>
+    <row r="530" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B530" s="5"/>
+      <c r="C530" s="5"/>
+    </row>
+    <row r="531" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B531" s="5"/>
+      <c r="C531" s="5"/>
+    </row>
+    <row r="532" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B532" s="5"/>
+      <c r="C532" s="5"/>
+    </row>
+    <row r="533" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B533" s="5"/>
+      <c r="C533" s="5"/>
+    </row>
+    <row r="534" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B534" s="5"/>
+      <c r="C534" s="5"/>
+    </row>
+    <row r="535" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B535" s="5"/>
+      <c r="C535" s="5"/>
+    </row>
+    <row r="536" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B536" s="5"/>
+      <c r="C536" s="5"/>
+    </row>
+    <row r="537" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B537" s="5"/>
+      <c r="C537" s="5"/>
+    </row>
+    <row r="538" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B538" s="5"/>
+      <c r="C538" s="5"/>
+    </row>
+    <row r="539" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B539" s="5"/>
+      <c r="C539" s="5"/>
+    </row>
+    <row r="540" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B540" s="5"/>
+      <c r="C540" s="5"/>
+    </row>
+    <row r="541" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B541" s="5"/>
+      <c r="C541" s="5"/>
+    </row>
+    <row r="542" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B542" s="5"/>
+      <c r="C542" s="5"/>
+    </row>
+    <row r="543" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B543" s="5"/>
+      <c r="C543" s="5"/>
+    </row>
+    <row r="544" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B544" s="5"/>
+      <c r="C544" s="5"/>
+    </row>
+    <row r="545" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B545" s="5"/>
+      <c r="C545" s="5"/>
+    </row>
+    <row r="546" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B546" s="5"/>
+      <c r="C546" s="5"/>
+    </row>
+    <row r="547" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="5"/>
+      <c r="C547" s="5"/>
+    </row>
+    <row r="548" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B548" s="5"/>
+      <c r="C548" s="5"/>
+    </row>
+    <row r="549" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B549" s="5"/>
+      <c r="C549" s="5"/>
+    </row>
+    <row r="550" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B550" s="5"/>
+      <c r="C550" s="5"/>
+    </row>
+    <row r="551" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B551" s="5"/>
+      <c r="C551" s="5"/>
+    </row>
+    <row r="552" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B552" s="5"/>
+      <c r="C552" s="5"/>
+    </row>
+    <row r="553" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B553" s="5"/>
+      <c r="C553" s="5"/>
+    </row>
+    <row r="554" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B554" s="5"/>
+      <c r="C554" s="5"/>
+    </row>
+    <row r="555" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B555" s="5"/>
+      <c r="C555" s="5"/>
+    </row>
+    <row r="556" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B556" s="5"/>
+      <c r="C556" s="5"/>
+    </row>
+    <row r="557" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B557" s="5"/>
+      <c r="C557" s="5"/>
+    </row>
+    <row r="558" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B558" s="5"/>
+      <c r="C558" s="5"/>
+    </row>
+    <row r="559" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B559" s="5"/>
+      <c r="C559" s="5"/>
+    </row>
+    <row r="560" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B560" s="5"/>
+      <c r="C560" s="5"/>
+    </row>
+    <row r="561" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B561" s="5"/>
+      <c r="C561" s="5"/>
+    </row>
+    <row r="562" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B562" s="5"/>
+      <c r="C562" s="5"/>
+    </row>
+    <row r="563" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B563" s="5"/>
+      <c r="C563" s="5"/>
+    </row>
+    <row r="564" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B564" s="5"/>
+      <c r="C564" s="5"/>
+    </row>
+    <row r="565" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B565" s="5"/>
+      <c r="C565" s="5"/>
+    </row>
+    <row r="566" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B566" s="5"/>
+      <c r="C566" s="5"/>
+    </row>
+    <row r="567" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B567" s="5"/>
+      <c r="C567" s="5"/>
+    </row>
+    <row r="568" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B568" s="5"/>
+      <c r="C568" s="5"/>
+    </row>
+    <row r="569" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B569" s="5"/>
+      <c r="C569" s="5"/>
+    </row>
+    <row r="570" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B570" s="5"/>
+      <c r="C570" s="5"/>
+    </row>
+    <row r="571" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B571" s="5"/>
+      <c r="C571" s="5"/>
+    </row>
+    <row r="572" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B572" s="5"/>
+      <c r="C572" s="5"/>
+    </row>
+    <row r="573" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B573" s="5"/>
+      <c r="C573" s="5"/>
+    </row>
+    <row r="574" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B574" s="5"/>
+      <c r="C574" s="5"/>
+    </row>
+    <row r="575" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B575" s="5"/>
+      <c r="C575" s="5"/>
+    </row>
+    <row r="576" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B576" s="5"/>
+      <c r="C576" s="5"/>
+    </row>
+    <row r="577" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B577" s="5"/>
+      <c r="C577" s="5"/>
+    </row>
+    <row r="578" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B578" s="5"/>
+      <c r="C578" s="5"/>
+    </row>
+    <row r="579" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B579" s="5"/>
+      <c r="C579" s="5"/>
+    </row>
+    <row r="580" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B580" s="5"/>
+      <c r="C580" s="5"/>
+    </row>
+    <row r="581" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B581" s="5"/>
+      <c r="C581" s="5"/>
+    </row>
+    <row r="582" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B582" s="5"/>
+      <c r="C582" s="5"/>
+    </row>
+    <row r="583" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B583" s="5"/>
+      <c r="C583" s="5"/>
+    </row>
+    <row r="584" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B584" s="5"/>
+      <c r="C584" s="5"/>
+    </row>
+    <row r="585" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B585" s="5"/>
+      <c r="C585" s="5"/>
+    </row>
+    <row r="586" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B586" s="5"/>
+      <c r="C586" s="5"/>
+    </row>
+    <row r="587" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B587" s="5"/>
+      <c r="C587" s="5"/>
+    </row>
+    <row r="588" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B588" s="5"/>
+      <c r="C588" s="5"/>
+    </row>
+    <row r="589" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B589" s="5"/>
+      <c r="C589" s="5"/>
+    </row>
+    <row r="590" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B590" s="5"/>
+      <c r="C590" s="5"/>
+    </row>
+    <row r="591" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B591" s="5"/>
+      <c r="C591" s="5"/>
+    </row>
+    <row r="592" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B592" s="5"/>
+      <c r="C592" s="5"/>
+    </row>
+    <row r="593" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B593" s="5"/>
+      <c r="C593" s="5"/>
+    </row>
+    <row r="594" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B594" s="5"/>
+      <c r="C594" s="5"/>
+    </row>
+    <row r="595" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B595" s="5"/>
+      <c r="C595" s="5"/>
+    </row>
+    <row r="596" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B596" s="5"/>
+      <c r="C596" s="5"/>
+    </row>
+    <row r="597" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B597" s="5"/>
+      <c r="C597" s="5"/>
+    </row>
+    <row r="598" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B598" s="5"/>
+      <c r="C598" s="5"/>
+    </row>
+    <row r="599" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B599" s="5"/>
+      <c r="C599" s="5"/>
+    </row>
+    <row r="600" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B600" s="5"/>
+      <c r="C600" s="5"/>
+    </row>
+    <row r="601" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B601" s="5"/>
+      <c r="C601" s="5"/>
+    </row>
+    <row r="602" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B602" s="5"/>
+      <c r="C602" s="5"/>
+    </row>
+    <row r="603" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B603" s="5"/>
+      <c r="C603" s="5"/>
+    </row>
+    <row r="604" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B604" s="5"/>
+      <c r="C604" s="5"/>
+    </row>
+    <row r="605" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B605" s="5"/>
+      <c r="C605" s="5"/>
+    </row>
+    <row r="606" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B606" s="5"/>
+      <c r="C606" s="5"/>
+    </row>
+    <row r="607" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B607" s="5"/>
+      <c r="C607" s="5"/>
+    </row>
+    <row r="608" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B608" s="5"/>
+      <c r="C608" s="5"/>
+    </row>
+    <row r="609" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B609" s="5"/>
+      <c r="C609" s="5"/>
+    </row>
+    <row r="610" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B610" s="5"/>
+      <c r="C610" s="5"/>
+    </row>
+    <row r="611" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B611" s="5"/>
+      <c r="C611" s="5"/>
+    </row>
+    <row r="612" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B612" s="5"/>
+      <c r="C612" s="5"/>
+    </row>
+    <row r="613" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B613" s="5"/>
+      <c r="C613" s="5"/>
+    </row>
+    <row r="614" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B614" s="5"/>
+      <c r="C614" s="5"/>
+    </row>
+    <row r="615" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B615" s="5"/>
+      <c r="C615" s="5"/>
+    </row>
+    <row r="616" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B616" s="5"/>
+      <c r="C616" s="5"/>
+    </row>
+    <row r="617" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B617" s="5"/>
+      <c r="C617" s="5"/>
+    </row>
+    <row r="618" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B618" s="5"/>
+      <c r="C618" s="5"/>
+    </row>
+    <row r="619" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B619" s="5"/>
+      <c r="C619" s="5"/>
+    </row>
+    <row r="620" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B620" s="5"/>
+      <c r="C620" s="5"/>
+    </row>
+    <row r="621" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B621" s="5"/>
+      <c r="C621" s="5"/>
+    </row>
+    <row r="622" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B622" s="5"/>
+      <c r="C622" s="5"/>
+    </row>
+    <row r="623" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B623" s="5"/>
+      <c r="C623" s="5"/>
+    </row>
+    <row r="624" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B624" s="5"/>
+      <c r="C624" s="5"/>
+    </row>
+    <row r="625" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B625" s="5"/>
+      <c r="C625" s="5"/>
+    </row>
+    <row r="626" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B626" s="5"/>
+      <c r="C626" s="5"/>
+    </row>
+    <row r="627" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B627" s="5"/>
+      <c r="C627" s="5"/>
+    </row>
+    <row r="628" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B628" s="5"/>
+      <c r="C628" s="5"/>
+    </row>
+    <row r="629" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B629" s="5"/>
+      <c r="C629" s="5"/>
+    </row>
+    <row r="630" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B630" s="5"/>
+      <c r="C630" s="5"/>
+    </row>
+    <row r="631" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B631" s="5"/>
+      <c r="C631" s="5"/>
+    </row>
+    <row r="632" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B632" s="5"/>
+      <c r="C632" s="5"/>
+    </row>
+    <row r="633" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B633" s="5"/>
+      <c r="C633" s="5"/>
+    </row>
+    <row r="634" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B634" s="5"/>
+      <c r="C634" s="5"/>
+    </row>
+    <row r="635" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B635" s="5"/>
+      <c r="C635" s="5"/>
+    </row>
+    <row r="636" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B636" s="5"/>
+      <c r="C636" s="5"/>
+    </row>
+    <row r="637" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B637" s="5"/>
+      <c r="C637" s="5"/>
+    </row>
+    <row r="638" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B638" s="5"/>
+      <c r="C638" s="5"/>
+    </row>
+    <row r="639" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B639" s="5"/>
+      <c r="C639" s="5"/>
+    </row>
+    <row r="640" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B640" s="5"/>
+      <c r="C640" s="5"/>
+    </row>
+    <row r="641" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B641" s="5"/>
+      <c r="C641" s="5"/>
+    </row>
+    <row r="642" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B642" s="5"/>
+      <c r="C642" s="5"/>
+    </row>
+    <row r="643" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B643" s="5"/>
+      <c r="C643" s="5"/>
+    </row>
+    <row r="644" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B644" s="5"/>
+      <c r="C644" s="5"/>
+    </row>
+    <row r="645" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B645" s="5"/>
+      <c r="C645" s="5"/>
+    </row>
+    <row r="646" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B646" s="5"/>
+      <c r="C646" s="5"/>
+    </row>
+    <row r="647" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B647" s="5"/>
+      <c r="C647" s="5"/>
+    </row>
+    <row r="648" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B648" s="5"/>
+      <c r="C648" s="5"/>
+    </row>
+    <row r="649" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B649" s="5"/>
+      <c r="C649" s="5"/>
+    </row>
+    <row r="650" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B650" s="5"/>
+      <c r="C650" s="5"/>
+    </row>
+    <row r="651" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B651" s="5"/>
+      <c r="C651" s="5"/>
+    </row>
+    <row r="652" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B652" s="5"/>
+      <c r="C652" s="5"/>
+    </row>
+    <row r="653" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B653" s="5"/>
+      <c r="C653" s="5"/>
+    </row>
+    <row r="654" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B654" s="5"/>
+      <c r="C654" s="5"/>
+    </row>
+    <row r="655" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B655" s="5"/>
+      <c r="C655" s="5"/>
+    </row>
+    <row r="656" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B656" s="5"/>
+      <c r="C656" s="5"/>
+    </row>
+    <row r="657" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B657" s="5"/>
+      <c r="C657" s="5"/>
+    </row>
+    <row r="658" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B658" s="5"/>
+      <c r="C658" s="5"/>
+    </row>
+    <row r="659" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B659" s="5"/>
+      <c r="C659" s="5"/>
+    </row>
+    <row r="660" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B660" s="5"/>
+      <c r="C660" s="5"/>
+    </row>
+    <row r="661" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B661" s="5"/>
+      <c r="C661" s="5"/>
+    </row>
+    <row r="662" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B662" s="5"/>
+      <c r="C662" s="5"/>
+    </row>
+    <row r="663" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B663" s="5"/>
+      <c r="C663" s="5"/>
+    </row>
+    <row r="664" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B664" s="5"/>
+      <c r="C664" s="5"/>
+    </row>
+    <row r="665" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B665" s="5"/>
+      <c r="C665" s="5"/>
+    </row>
+    <row r="666" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B666" s="5"/>
+      <c r="C666" s="5"/>
+    </row>
+    <row r="667" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B667" s="5"/>
+      <c r="C667" s="5"/>
+    </row>
+    <row r="668" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B668" s="5"/>
+      <c r="C668" s="5"/>
+    </row>
+    <row r="669" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B669" s="5"/>
+      <c r="C669" s="5"/>
+    </row>
+    <row r="670" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B670" s="5"/>
+      <c r="C670" s="5"/>
+    </row>
+    <row r="671" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B671" s="5"/>
+      <c r="C671" s="5"/>
+    </row>
+    <row r="672" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B672" s="5"/>
+      <c r="C672" s="5"/>
+    </row>
+    <row r="673" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B673" s="5"/>
+      <c r="C673" s="5"/>
+    </row>
+    <row r="674" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B674" s="5"/>
+      <c r="C674" s="5"/>
+    </row>
+    <row r="675" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B675" s="5"/>
+      <c r="C675" s="5"/>
+    </row>
+    <row r="676" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B676" s="5"/>
+      <c r="C676" s="5"/>
+    </row>
+    <row r="677" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B677" s="5"/>
+      <c r="C677" s="5"/>
+    </row>
+    <row r="678" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B678" s="5"/>
+      <c r="C678" s="5"/>
+    </row>
+    <row r="679" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B679" s="5"/>
+      <c r="C679" s="5"/>
+    </row>
+    <row r="680" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B680" s="5"/>
+      <c r="C680" s="5"/>
+    </row>
+    <row r="681" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B681" s="5"/>
+      <c r="C681" s="5"/>
+    </row>
+    <row r="682" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B682" s="5"/>
+      <c r="C682" s="5"/>
+    </row>
+    <row r="683" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B683" s="5"/>
+      <c r="C683" s="5"/>
+    </row>
+    <row r="684" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B684" s="5"/>
+      <c r="C684" s="5"/>
+    </row>
+    <row r="685" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B685" s="5"/>
+      <c r="C685" s="5"/>
+    </row>
+    <row r="686" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B686" s="5"/>
+      <c r="C686" s="5"/>
+    </row>
+    <row r="687" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B687" s="5"/>
+      <c r="C687" s="5"/>
+    </row>
+    <row r="688" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B688" s="5"/>
+      <c r="C688" s="5"/>
+    </row>
+    <row r="689" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B689" s="5"/>
+      <c r="C689" s="5"/>
+    </row>
+    <row r="690" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B690" s="5"/>
+      <c r="C690" s="5"/>
+    </row>
+    <row r="691" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B691" s="5"/>
+      <c r="C691" s="5"/>
+    </row>
+    <row r="692" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B692" s="5"/>
+      <c r="C692" s="5"/>
+    </row>
+    <row r="693" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B693" s="5"/>
+      <c r="C693" s="5"/>
+    </row>
+    <row r="694" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B694" s="5"/>
+      <c r="C694" s="5"/>
+    </row>
+    <row r="695" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B695" s="5"/>
+      <c r="C695" s="5"/>
+    </row>
+    <row r="696" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B696" s="5"/>
+      <c r="C696" s="5"/>
+    </row>
+    <row r="697" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B697" s="5"/>
+      <c r="C697" s="5"/>
+    </row>
+    <row r="698" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B698" s="5"/>
+      <c r="C698" s="5"/>
+    </row>
+    <row r="699" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B699" s="5"/>
+      <c r="C699" s="5"/>
+    </row>
+    <row r="700" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B700" s="5"/>
+      <c r="C700" s="5"/>
+    </row>
+    <row r="701" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B701" s="5"/>
+      <c r="C701" s="5"/>
+    </row>
+    <row r="702" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B702" s="5"/>
+      <c r="C702" s="5"/>
+    </row>
+    <row r="703" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B703" s="5"/>
+      <c r="C703" s="5"/>
+    </row>
+    <row r="704" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B704" s="5"/>
+      <c r="C704" s="5"/>
+    </row>
+    <row r="705" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B705" s="5"/>
+      <c r="C705" s="5"/>
+    </row>
+    <row r="706" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B706" s="5"/>
+      <c r="C706" s="5"/>
+    </row>
+    <row r="707" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B707" s="5"/>
+      <c r="C707" s="5"/>
+    </row>
+    <row r="708" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B708" s="5"/>
+      <c r="C708" s="5"/>
+    </row>
+    <row r="709" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B709" s="5"/>
+      <c r="C709" s="5"/>
+    </row>
+    <row r="710" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B710" s="5"/>
+      <c r="C710" s="5"/>
+    </row>
+    <row r="711" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B711" s="5"/>
+      <c r="C711" s="5"/>
+    </row>
+    <row r="712" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B712" s="5"/>
+      <c r="C712" s="5"/>
+    </row>
+    <row r="713" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B713" s="5"/>
+      <c r="C713" s="5"/>
+    </row>
+    <row r="714" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B714" s="5"/>
+      <c r="C714" s="5"/>
+    </row>
+    <row r="715" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B715" s="5"/>
+      <c r="C715" s="5"/>
+    </row>
+    <row r="716" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B716" s="5"/>
+      <c r="C716" s="5"/>
+    </row>
+    <row r="717" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B717" s="5"/>
+      <c r="C717" s="5"/>
+    </row>
+    <row r="718" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B718" s="5"/>
+      <c r="C718" s="5"/>
+    </row>
+    <row r="719" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B719" s="5"/>
+      <c r="C719" s="5"/>
+    </row>
+    <row r="720" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B720" s="5"/>
+      <c r="C720" s="5"/>
+    </row>
+    <row r="721" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B721" s="5"/>
+      <c r="C721" s="5"/>
+    </row>
+    <row r="722" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B722" s="5"/>
+      <c r="C722" s="5"/>
+    </row>
+    <row r="723" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B723" s="5"/>
+      <c r="C723" s="5"/>
+    </row>
+    <row r="724" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B724" s="5"/>
+      <c r="C724" s="5"/>
+    </row>
+    <row r="725" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B725" s="5"/>
+      <c r="C725" s="5"/>
+    </row>
+    <row r="726" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B726" s="5"/>
+      <c r="C726" s="5"/>
+    </row>
+    <row r="727" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B727" s="5"/>
+      <c r="C727" s="5"/>
+    </row>
+    <row r="728" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B728" s="5"/>
+      <c r="C728" s="5"/>
+    </row>
+    <row r="729" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B729" s="5"/>
+      <c r="C729" s="5"/>
+    </row>
+    <row r="730" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B730" s="5"/>
+      <c r="C730" s="5"/>
+    </row>
+    <row r="731" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B731" s="5"/>
+      <c r="C731" s="5"/>
+    </row>
+    <row r="732" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B732" s="5"/>
+      <c r="C732" s="5"/>
+    </row>
+    <row r="733" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B733" s="5"/>
+      <c r="C733" s="5"/>
+    </row>
+    <row r="734" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B734" s="5"/>
+      <c r="C734" s="5"/>
+    </row>
+    <row r="735" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B735" s="5"/>
+      <c r="C735" s="5"/>
+    </row>
+    <row r="736" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B736" s="5"/>
+      <c r="C736" s="5"/>
+    </row>
+    <row r="737" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B737" s="5"/>
+      <c r="C737" s="5"/>
+    </row>
+    <row r="738" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B738" s="5"/>
+      <c r="C738" s="5"/>
+    </row>
+    <row r="739" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B739" s="5"/>
+      <c r="C739" s="5"/>
+    </row>
+    <row r="740" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B740" s="5"/>
+      <c r="C740" s="5"/>
+    </row>
+    <row r="741" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B741" s="5"/>
+      <c r="C741" s="5"/>
+    </row>
+    <row r="742" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B742" s="5"/>
+      <c r="C742" s="5"/>
+    </row>
+    <row r="743" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B743" s="5"/>
+      <c r="C743" s="5"/>
+    </row>
+    <row r="744" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B744" s="5"/>
+      <c r="C744" s="5"/>
+    </row>
+    <row r="745" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B745" s="5"/>
+      <c r="C745" s="5"/>
+    </row>
+    <row r="746" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B746" s="5"/>
+      <c r="C746" s="5"/>
+    </row>
+    <row r="747" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B747" s="5"/>
+      <c r="C747" s="5"/>
+    </row>
+    <row r="748" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B748" s="5"/>
+      <c r="C748" s="5"/>
+    </row>
+    <row r="749" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B749" s="5"/>
+      <c r="C749" s="5"/>
+    </row>
+    <row r="750" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B750" s="5"/>
+      <c r="C750" s="5"/>
+    </row>
+    <row r="751" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B751" s="5"/>
+      <c r="C751" s="5"/>
+    </row>
+    <row r="752" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B752" s="5"/>
+      <c r="C752" s="5"/>
+    </row>
+    <row r="753" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B753" s="5"/>
+      <c r="C753" s="5"/>
+    </row>
+    <row r="754" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B754" s="5"/>
+      <c r="C754" s="5"/>
+    </row>
+    <row r="755" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B755" s="5"/>
+      <c r="C755" s="5"/>
+    </row>
+    <row r="756" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B756" s="5"/>
+      <c r="C756" s="5"/>
+    </row>
+    <row r="757" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B757" s="5"/>
+      <c r="C757" s="5"/>
+    </row>
+    <row r="758" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B758" s="5"/>
+      <c r="C758" s="5"/>
+    </row>
+    <row r="759" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B759" s="5"/>
+      <c r="C759" s="5"/>
+    </row>
+    <row r="760" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B760" s="5"/>
+      <c r="C760" s="5"/>
+    </row>
+    <row r="761" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B761" s="5"/>
+      <c r="C761" s="5"/>
+    </row>
+    <row r="762" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B762" s="5"/>
+      <c r="C762" s="5"/>
+    </row>
+    <row r="763" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B763" s="5"/>
+      <c r="C763" s="5"/>
+    </row>
+    <row r="764" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B764" s="5"/>
+      <c r="C764" s="5"/>
+    </row>
+    <row r="765" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B765" s="5"/>
+      <c r="C765" s="5"/>
+    </row>
+    <row r="766" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B766" s="5"/>
+      <c r="C766" s="5"/>
+    </row>
+    <row r="767" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B767" s="5"/>
+      <c r="C767" s="5"/>
+    </row>
+    <row r="768" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B768" s="5"/>
+      <c r="C768" s="5"/>
+    </row>
+    <row r="769" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B769" s="5"/>
+      <c r="C769" s="5"/>
+    </row>
+    <row r="770" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B770" s="5"/>
+      <c r="C770" s="5"/>
+    </row>
+    <row r="771" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B771" s="5"/>
+      <c r="C771" s="5"/>
+    </row>
+    <row r="772" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B772" s="5"/>
+      <c r="C772" s="5"/>
+    </row>
+    <row r="773" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B773" s="5"/>
+      <c r="C773" s="5"/>
+    </row>
+    <row r="774" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B774" s="5"/>
+      <c r="C774" s="5"/>
+    </row>
+    <row r="775" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B775" s="5"/>
+      <c r="C775" s="5"/>
+    </row>
+    <row r="776" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B776" s="5"/>
+      <c r="C776" s="5"/>
+    </row>
+    <row r="777" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B777" s="5"/>
+      <c r="C777" s="5"/>
+    </row>
+    <row r="778" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B778" s="5"/>
+      <c r="C778" s="5"/>
+    </row>
+    <row r="779" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B779" s="5"/>
+      <c r="C779" s="5"/>
+    </row>
+    <row r="780" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B780" s="5"/>
+      <c r="C780" s="5"/>
+    </row>
+    <row r="781" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B781" s="5"/>
+      <c r="C781" s="5"/>
+    </row>
+    <row r="782" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B782" s="5"/>
+      <c r="C782" s="5"/>
+    </row>
+    <row r="783" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B783" s="5"/>
+      <c r="C783" s="5"/>
+    </row>
+    <row r="784" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B784" s="5"/>
+      <c r="C784" s="5"/>
+    </row>
+    <row r="785" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B785" s="5"/>
+      <c r="C785" s="5"/>
+    </row>
+    <row r="786" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B786" s="5"/>
+      <c r="C786" s="5"/>
+    </row>
+    <row r="787" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B787" s="5"/>
+      <c r="C787" s="5"/>
+    </row>
+    <row r="788" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B788" s="5"/>
+      <c r="C788" s="5"/>
+    </row>
+    <row r="789" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B789" s="5"/>
+      <c r="C789" s="5"/>
+    </row>
+    <row r="790" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B790" s="5"/>
+      <c r="C790" s="5"/>
+    </row>
+    <row r="791" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B791" s="5"/>
+      <c r="C791" s="5"/>
+    </row>
+    <row r="792" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B792" s="5"/>
+      <c r="C792" s="5"/>
+    </row>
+    <row r="793" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B793" s="5"/>
+      <c r="C793" s="5"/>
+    </row>
+    <row r="794" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B794" s="5"/>
+      <c r="C794" s="5"/>
+    </row>
+    <row r="795" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B795" s="5"/>
+      <c r="C795" s="5"/>
+    </row>
+    <row r="796" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B796" s="5"/>
+      <c r="C796" s="5"/>
+    </row>
+    <row r="797" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B797" s="5"/>
+      <c r="C797" s="5"/>
+    </row>
+    <row r="798" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B798" s="5"/>
+      <c r="C798" s="5"/>
+    </row>
+    <row r="799" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B799" s="5"/>
+      <c r="C799" s="5"/>
+    </row>
+    <row r="800" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B800" s="5"/>
+      <c r="C800" s="5"/>
+    </row>
+    <row r="801" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B801" s="5"/>
+      <c r="C801" s="5"/>
+    </row>
+    <row r="802" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B802" s="5"/>
+      <c r="C802" s="5"/>
+    </row>
+    <row r="803" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B803" s="5"/>
+      <c r="C803" s="5"/>
+    </row>
+    <row r="804" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B804" s="5"/>
+      <c r="C804" s="5"/>
+    </row>
+    <row r="805" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B805" s="5"/>
+      <c r="C805" s="5"/>
+    </row>
+    <row r="806" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B806" s="5"/>
+      <c r="C806" s="5"/>
+    </row>
+    <row r="807" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B807" s="5"/>
+      <c r="C807" s="5"/>
+    </row>
+    <row r="808" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B808" s="5"/>
+      <c r="C808" s="5"/>
+    </row>
+    <row r="809" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B809" s="5"/>
+      <c r="C809" s="5"/>
+    </row>
+    <row r="810" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B810" s="5"/>
+      <c r="C810" s="5"/>
+    </row>
+    <row r="811" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B811" s="5"/>
+      <c r="C811" s="5"/>
+    </row>
+    <row r="812" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B812" s="5"/>
+      <c r="C812" s="5"/>
+    </row>
+    <row r="813" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B813" s="5"/>
+      <c r="C813" s="5"/>
+    </row>
+    <row r="814" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B814" s="5"/>
+      <c r="C814" s="5"/>
+    </row>
+    <row r="815" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B815" s="5"/>
+      <c r="C815" s="5"/>
+    </row>
+    <row r="816" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B816" s="5"/>
+      <c r="C816" s="5"/>
+    </row>
+    <row r="817" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B817" s="5"/>
+      <c r="C817" s="5"/>
+    </row>
+    <row r="818" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B818" s="5"/>
+      <c r="C818" s="5"/>
+    </row>
+    <row r="819" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B819" s="5"/>
+      <c r="C819" s="5"/>
+    </row>
+    <row r="820" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B820" s="5"/>
+      <c r="C820" s="5"/>
+    </row>
+    <row r="821" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B821" s="5"/>
+      <c r="C821" s="5"/>
+    </row>
+    <row r="822" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B822" s="5"/>
+      <c r="C822" s="5"/>
+    </row>
+    <row r="823" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B823" s="5"/>
+      <c r="C823" s="5"/>
+    </row>
+    <row r="824" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B824" s="5"/>
+      <c r="C824" s="5"/>
+    </row>
+    <row r="825" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B825" s="5"/>
+      <c r="C825" s="5"/>
+    </row>
+    <row r="826" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B826" s="5"/>
+      <c r="C826" s="5"/>
+    </row>
+    <row r="827" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B827" s="5"/>
+      <c r="C827" s="5"/>
+    </row>
+    <row r="828" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B828" s="5"/>
+      <c r="C828" s="5"/>
+    </row>
+    <row r="829" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B829" s="5"/>
+      <c r="C829" s="5"/>
+    </row>
+    <row r="830" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B830" s="5"/>
+      <c r="C830" s="5"/>
+    </row>
+    <row r="831" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B831" s="5"/>
+      <c r="C831" s="5"/>
+    </row>
+    <row r="832" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B832" s="5"/>
+      <c r="C832" s="5"/>
+    </row>
+    <row r="833" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B833" s="5"/>
+      <c r="C833" s="5"/>
+    </row>
+    <row r="834" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B834" s="5"/>
+      <c r="C834" s="5"/>
+    </row>
+    <row r="835" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B835" s="5"/>
+      <c r="C835" s="5"/>
+    </row>
+    <row r="836" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B836" s="5"/>
+      <c r="C836" s="5"/>
+    </row>
+    <row r="837" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B837" s="5"/>
+      <c r="C837" s="5"/>
+    </row>
+    <row r="838" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B838" s="5"/>
+      <c r="C838" s="5"/>
+    </row>
+    <row r="839" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B839" s="5"/>
+      <c r="C839" s="5"/>
+    </row>
+    <row r="840" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B840" s="5"/>
+      <c r="C840" s="5"/>
+    </row>
+    <row r="841" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B841" s="5"/>
+      <c r="C841" s="5"/>
+    </row>
+    <row r="842" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B842" s="5"/>
+      <c r="C842" s="5"/>
+    </row>
+    <row r="843" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B843" s="5"/>
+      <c r="C843" s="5"/>
+    </row>
+    <row r="844" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B844" s="5"/>
+      <c r="C844" s="5"/>
+    </row>
+    <row r="845" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B845" s="5"/>
+      <c r="C845" s="5"/>
+    </row>
+    <row r="846" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B846" s="5"/>
+      <c r="C846" s="5"/>
+    </row>
+    <row r="847" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B847" s="5"/>
+      <c r="C847" s="5"/>
+    </row>
+    <row r="848" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B848" s="5"/>
+      <c r="C848" s="5"/>
+    </row>
+    <row r="849" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B849" s="5"/>
+      <c r="C849" s="5"/>
+    </row>
+    <row r="850" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B850" s="5"/>
+      <c r="C850" s="5"/>
+    </row>
+    <row r="851" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B851" s="5"/>
+      <c r="C851" s="5"/>
+    </row>
+    <row r="852" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B852" s="5"/>
+      <c r="C852" s="5"/>
+    </row>
+    <row r="853" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B853" s="5"/>
+      <c r="C853" s="5"/>
+    </row>
+    <row r="854" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B854" s="5"/>
+      <c r="C854" s="5"/>
+    </row>
+    <row r="855" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B855" s="5"/>
+      <c r="C855" s="5"/>
+    </row>
+    <row r="856" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B856" s="5"/>
+      <c r="C856" s="5"/>
+    </row>
+    <row r="857" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B857" s="5"/>
+      <c r="C857" s="5"/>
+    </row>
+    <row r="858" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B858" s="5"/>
+      <c r="C858" s="5"/>
+    </row>
+    <row r="859" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B859" s="5"/>
+      <c r="C859" s="5"/>
+    </row>
+    <row r="860" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B860" s="5"/>
+      <c r="C860" s="5"/>
+    </row>
+    <row r="861" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B861" s="5"/>
+      <c r="C861" s="5"/>
+    </row>
+    <row r="862" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B862" s="5"/>
+      <c r="C862" s="5"/>
+    </row>
+    <row r="863" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B863" s="5"/>
+      <c r="C863" s="5"/>
+    </row>
+    <row r="864" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B864" s="5"/>
+      <c r="C864" s="5"/>
+    </row>
+    <row r="865" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B865" s="5"/>
+      <c r="C865" s="5"/>
+    </row>
+    <row r="866" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B866" s="5"/>
+      <c r="C866" s="5"/>
+    </row>
+    <row r="867" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B867" s="5"/>
+      <c r="C867" s="5"/>
+    </row>
+    <row r="868" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B868" s="5"/>
+      <c r="C868" s="5"/>
+    </row>
+    <row r="869" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B869" s="5"/>
+      <c r="C869" s="5"/>
+    </row>
+    <row r="870" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B870" s="5"/>
+      <c r="C870" s="5"/>
+    </row>
+    <row r="871" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B871" s="5"/>
+      <c r="C871" s="5"/>
+    </row>
+    <row r="872" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B872" s="5"/>
+      <c r="C872" s="5"/>
+    </row>
+    <row r="873" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B873" s="5"/>
+      <c r="C873" s="5"/>
+    </row>
+    <row r="874" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B874" s="5"/>
+      <c r="C874" s="5"/>
+    </row>
+    <row r="875" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B875" s="5"/>
+      <c r="C875" s="5"/>
+    </row>
+    <row r="876" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B876" s="5"/>
+      <c r="C876" s="5"/>
+    </row>
+    <row r="877" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B877" s="5"/>
+      <c r="C877" s="5"/>
+    </row>
+    <row r="878" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B878" s="5"/>
+      <c r="C878" s="5"/>
+    </row>
+    <row r="879" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B879" s="5"/>
+      <c r="C879" s="5"/>
+    </row>
+    <row r="880" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B880" s="5"/>
+      <c r="C880" s="5"/>
+    </row>
+    <row r="881" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B881" s="5"/>
+      <c r="C881" s="5"/>
+    </row>
+    <row r="882" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B882" s="5"/>
+      <c r="C882" s="5"/>
+    </row>
+    <row r="883" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B883" s="5"/>
+      <c r="C883" s="5"/>
+    </row>
+    <row r="884" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B884" s="5"/>
+      <c r="C884" s="5"/>
+    </row>
+    <row r="885" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B885" s="5"/>
+      <c r="C885" s="5"/>
+    </row>
+    <row r="886" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B886" s="5"/>
+      <c r="C886" s="5"/>
+    </row>
+    <row r="887" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B887" s="5"/>
+      <c r="C887" s="5"/>
+    </row>
+    <row r="888" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B888" s="5"/>
+      <c r="C888" s="5"/>
+    </row>
+    <row r="889" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B889" s="5"/>
+      <c r="C889" s="5"/>
+    </row>
+    <row r="890" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B890" s="5"/>
+      <c r="C890" s="5"/>
+    </row>
+    <row r="891" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B891" s="5"/>
+      <c r="C891" s="5"/>
+    </row>
+    <row r="892" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B892" s="5"/>
+      <c r="C892" s="5"/>
+    </row>
+    <row r="893" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B893" s="5"/>
+      <c r="C893" s="5"/>
+    </row>
+    <row r="894" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B894" s="5"/>
+      <c r="C894" s="5"/>
+    </row>
+    <row r="895" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B895" s="5"/>
+      <c r="C895" s="5"/>
+    </row>
+    <row r="896" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B896" s="5"/>
+      <c r="C896" s="5"/>
+    </row>
+    <row r="897" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B897" s="5"/>
+      <c r="C897" s="5"/>
+    </row>
+    <row r="898" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B898" s="5"/>
+      <c r="C898" s="5"/>
+    </row>
+    <row r="899" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B899" s="5"/>
+      <c r="C899" s="5"/>
+    </row>
+    <row r="900" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B900" s="5"/>
+      <c r="C900" s="5"/>
+    </row>
+    <row r="901" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B901" s="5"/>
+      <c r="C901" s="5"/>
+    </row>
+    <row r="902" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B902" s="5"/>
+      <c r="C902" s="5"/>
+    </row>
+    <row r="903" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B903" s="5"/>
+      <c r="C903" s="5"/>
+    </row>
+    <row r="904" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B904" s="5"/>
+      <c r="C904" s="5"/>
+    </row>
+    <row r="905" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B905" s="5"/>
+      <c r="C905" s="5"/>
+    </row>
+    <row r="906" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B906" s="5"/>
+      <c r="C906" s="5"/>
+    </row>
+    <row r="907" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B907" s="5"/>
+      <c r="C907" s="5"/>
+    </row>
+    <row r="908" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B908" s="5"/>
+      <c r="C908" s="5"/>
+    </row>
+    <row r="909" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B909" s="5"/>
+      <c r="C909" s="5"/>
+    </row>
+    <row r="910" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B910" s="5"/>
+      <c r="C910" s="5"/>
+    </row>
+    <row r="911" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B911" s="5"/>
+      <c r="C911" s="5"/>
+    </row>
+    <row r="912" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B912" s="5"/>
+      <c r="C912" s="5"/>
+    </row>
+    <row r="913" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B913" s="5"/>
+      <c r="C913" s="5"/>
+    </row>
+    <row r="914" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B914" s="5"/>
+      <c r="C914" s="5"/>
+    </row>
+    <row r="915" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B915" s="5"/>
+      <c r="C915" s="5"/>
+    </row>
+    <row r="916" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B916" s="5"/>
+      <c r="C916" s="5"/>
+    </row>
+    <row r="917" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B917" s="5"/>
+      <c r="C917" s="5"/>
+    </row>
+    <row r="918" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B918" s="5"/>
+      <c r="C918" s="5"/>
+    </row>
+    <row r="919" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B919" s="5"/>
+      <c r="C919" s="5"/>
+    </row>
+    <row r="920" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B920" s="5"/>
+      <c r="C920" s="5"/>
+    </row>
+    <row r="921" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B921" s="5"/>
+      <c r="C921" s="5"/>
+    </row>
+    <row r="922" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B922" s="5"/>
+      <c r="C922" s="5"/>
+    </row>
+    <row r="923" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B923" s="5"/>
+      <c r="C923" s="5"/>
+    </row>
+    <row r="924" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B924" s="5"/>
+      <c r="C924" s="5"/>
+    </row>
+    <row r="925" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B925" s="5"/>
+      <c r="C925" s="5"/>
+    </row>
+    <row r="926" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B926" s="5"/>
+      <c r="C926" s="5"/>
+    </row>
+    <row r="927" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B927" s="5"/>
+      <c r="C927" s="5"/>
+    </row>
+    <row r="928" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B928" s="5"/>
+      <c r="C928" s="5"/>
+    </row>
+    <row r="929" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B929" s="5"/>
+      <c r="C929" s="5"/>
+    </row>
+    <row r="930" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B930" s="5"/>
+      <c r="C930" s="5"/>
+    </row>
+    <row r="931" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B931" s="5"/>
+      <c r="C931" s="5"/>
+    </row>
+    <row r="932" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B932" s="5"/>
+      <c r="C932" s="5"/>
+    </row>
+    <row r="933" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B933" s="5"/>
+      <c r="C933" s="5"/>
+    </row>
+    <row r="934" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B934" s="5"/>
+      <c r="C934" s="5"/>
+    </row>
+    <row r="935" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B935" s="5"/>
+      <c r="C935" s="5"/>
+    </row>
+    <row r="936" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B936" s="5"/>
+      <c r="C936" s="5"/>
+    </row>
+    <row r="937" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B937" s="5"/>
+      <c r="C937" s="5"/>
+    </row>
+    <row r="938" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B938" s="5"/>
+      <c r="C938" s="5"/>
+    </row>
+    <row r="939" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B939" s="5"/>
+      <c r="C939" s="5"/>
+    </row>
+    <row r="940" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B940" s="5"/>
+      <c r="C940" s="5"/>
+    </row>
+    <row r="941" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B941" s="5"/>
+      <c r="C941" s="5"/>
+    </row>
+    <row r="942" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B942" s="5"/>
+      <c r="C942" s="5"/>
+    </row>
+    <row r="943" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B943" s="5"/>
+      <c r="C943" s="5"/>
+    </row>
+    <row r="944" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B944" s="5"/>
+      <c r="C944" s="5"/>
+    </row>
+    <row r="945" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B945" s="5"/>
+      <c r="C945" s="5"/>
+    </row>
+    <row r="946" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B946" s="6"/>
+    </row>
+    <row r="947" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B947" s="6"/>
+    </row>
+    <row r="948" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B948" s="6"/>
+    </row>
+    <row r="949" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B949" s="6"/>
+    </row>
+    <row r="950" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B950" s="6"/>
+    </row>
+    <row r="951" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B951" s="6"/>
+    </row>
+    <row r="952" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B952" s="6"/>
+    </row>
+    <row r="953" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B953" s="6"/>
+    </row>
+    <row r="954" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B954" s="6"/>
+    </row>
+    <row r="955" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B955" s="6"/>
+    </row>
+    <row r="956" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B956" s="6"/>
+    </row>
+    <row r="957" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B957" s="6"/>
+    </row>
+    <row r="958" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B958" s="6"/>
+    </row>
+    <row r="959" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B959" s="6"/>
+    </row>
+    <row r="960" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B960" s="6"/>
+    </row>
+    <row r="961" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B961" s="6"/>
+    </row>
+    <row r="962" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B962" s="6"/>
+    </row>
+    <row r="963" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B963" s="6"/>
+    </row>
+    <row r="964" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B964" s="6"/>
+    </row>
+    <row r="965" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B965" s="6"/>
+    </row>
+    <row r="966" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B966" s="6"/>
+    </row>
+    <row r="967" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B967" s="6"/>
+    </row>
+    <row r="968" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B968" s="6"/>
+    </row>
+    <row r="969" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B969" s="6"/>
+    </row>
+    <row r="970" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B970" s="6"/>
+    </row>
+    <row r="971" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B971" s="6"/>
+    </row>
+    <row r="972" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B972" s="6"/>
+    </row>
+    <row r="973" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B973" s="6"/>
+    </row>
+    <row r="974" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B974" s="6"/>
+    </row>
+    <row r="975" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B975" s="6"/>
+    </row>
+    <row r="976" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B976" s="6"/>
+    </row>
+    <row r="977" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B977" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:averich@uni-dubna.ru"/>
+    <hyperlink ref="C3" r:id="rId2" display="mailto:averkin@uni-dubna.ru"/>
+    <hyperlink ref="C7" r:id="rId3" display="mailto:antonenkov@uni-dubna.ru"/>
+    <hyperlink ref="C8" r:id="rId4" display="mailto:balashova.m.v@uni-dubna.ru"/>
+    <hyperlink ref="C9" r:id="rId5" display="mailto:baria@uni-dubna.ru"/>
+    <hyperlink ref="C10" r:id="rId6" display="mailto:BaulinaLV@uni-dubna.ru"/>
+    <hyperlink ref="C12" r:id="rId7" display="mailto:tmbednyakova@uni-dubna.ru"/>
+    <hyperlink ref="C13" r:id="rId8" display="mailto:mbelov@uni-dubna.ru"/>
+    <hyperlink ref="C14" r:id="rId9" display="mailto:o_belov@uni-dubna.ru"/>
+    <hyperlink ref="C15" r:id="rId10" display="mailto:bobyleva.s.v@uni-dubna.ru"/>
+    <hyperlink ref="C16" r:id="rId11" display="mailto:bolonkina@uni-dubna.ru"/>
+    <hyperlink ref="C18" r:id="rId12" display="mailto:bugrov2018@uni-dubna.ru"/>
+    <hyperlink ref="C19" r:id="rId13" display="mailto:buljakova@uni-dubna.ru"/>
+    <hyperlink ref="C21" r:id="rId14" display="mailto:vozvysh@uni-dubna.ru"/>
+    <hyperlink ref="C23" r:id="rId15" display="mailto:dimgut@uni-dubna.ru"/>
+    <hyperlink ref="C24" r:id="rId16" display="mailto:dww@uni-dubna.ru"/>
+    <hyperlink ref="C25" r:id="rId17" display="mailto:tdedovich@uni-dubna.ru"/>
+    <hyperlink ref="C27" r:id="rId18" display="mailto:arbatsolo@uni-dubna.ru"/>
+    <hyperlink ref="C28" r:id="rId19" display="mailto:dorohin@uni-dubna.ru"/>
+    <hyperlink ref="C29" r:id="rId20" display="mailto:dumbrajs.k.o@uni-dubna.ru"/>
+    <hyperlink ref="C32" r:id="rId21" display="mailto:eershov@uni-dubna.ru"/>
+    <hyperlink ref="C33" r:id="rId22" display="mailto:ershovnm@uni-dubna.ru"/>
+    <hyperlink ref="C34" r:id="rId23" display="mailto:evgeniya.zhabitskaya@uni-dubna.ru"/>
+    <hyperlink ref="C35" r:id="rId24" display="mailto:zhatkina.k.n@uni-dubna.ru"/>
+    <hyperlink ref="C36" r:id="rId25" display="mailto:alex.zador@uni-dubna.ru"/>
+    <hyperlink ref="C37" r:id="rId26" display="mailto:zelenkov@uni-dubna.ru"/>
+    <hyperlink ref="C38" r:id="rId27" display="mailto:zda.asp@uni-dubna.ru"/>
+    <hyperlink ref="C40" r:id="rId28" display="mailto:o_olga@uni-dubna.ru"/>
+    <hyperlink ref="C43" r:id="rId29" display="mailto:kalinina@uni-dubna.ru"/>
+    <hyperlink ref="C45" r:id="rId30" display="mailto:daryap@uni-dubna.ru"/>
+    <hyperlink ref="C46" r:id="rId31" display="mailto:kirphel@uni-dubna.ru"/>
+    <hyperlink ref="C48" r:id="rId32" display="mailto:ekolbenko@uni-dubna.ru"/>
+    <hyperlink ref="C51" r:id="rId33" display="mailto:kreider.o@uni-dubna.ru"/>
+    <hyperlink ref="C53" r:id="rId34" display="mailto:kua@uni-dubna.ru"/>
+    <hyperlink ref="C54" r:id="rId35" display="mailto:d.kudriavtseva@uni-dubna.ru"/>
+    <hyperlink ref="C57" r:id="rId36" display="mailto:lishi@uni-dubna.ru"/>
+    <hyperlink ref="C58" r:id="rId37" display="mailto:luky@uni-dubna.ru"/>
+    <hyperlink ref="C59" r:id="rId38" display="mailto:lupanov@uni-dubna.ru"/>
+    <hyperlink ref="C60" r:id="rId39" display="mailto:natali@uni-dubna.ru"/>
+    <hyperlink ref="C63" r:id="rId40" display="mailto:mahalkina.t@uni-dubna.ru"/>
+    <hyperlink ref="C64" r:id="rId41" display="mailto:oimelnk@uni-dubna.ru"/>
+    <hyperlink ref="C65" r:id="rId42" display="mailto:milanna@uni-dubna.ru"/>
+    <hyperlink ref="C66" r:id="rId43" display="mailto:minzovas@uni-dubna.ru"/>
+    <hyperlink ref="C67" r:id="rId44" display="mailto:mikhi@uni-dubna.ru"/>
+    <hyperlink ref="C69" r:id="rId45" display="mailto:moroz@uni-dubna.ru"/>
+    <hyperlink ref="C70" r:id="rId46" display="mailto:mivv.th@uni-dubna.ru"/>
+    <hyperlink ref="C71" r:id="rId47" display="mailto:muradian@uni-dubna.ru"/>
+    <hyperlink ref="C73" r:id="rId48" display="mailto:e_orlova@uni-dubna.ru"/>
+    <hyperlink ref="C74" r:id="rId49" display="mailto:pavel-osipov@uni-dubna.ru"/>
+    <hyperlink ref="C75" r:id="rId50" display="mailto:ososkov.g@uni-dubna.ru"/>
+    <hyperlink ref="C76" r:id="rId51" display="mailto:pelei@uni-dubna.ru"/>
+    <hyperlink ref="C77" r:id="rId52" display="mailto:petrov.a.e@uni-dubna.ru"/>
+    <hyperlink ref="C79" r:id="rId53" display="mailto:polsv.08@uni-dubna.ru"/>
+    <hyperlink ref="C81" r:id="rId54" display="mailto:snezhana@uni-dubna.ru"/>
+    <hyperlink ref="C82" r:id="rId55" display="mailto:progulov@uni-dubna.ru"/>
+    <hyperlink ref="C85" r:id="rId56" display="mailto:reshag.04@uni-dubna.ru"/>
+    <hyperlink ref="C86" r:id="rId57" display="mailto:reshetgp@uni-dubna.ru"/>
+    <hyperlink ref="C87" r:id="rId58" display="mailto:roenko.a.o@uni-dubna.ru"/>
+    <hyperlink ref="C89" r:id="rId59" display="mailto:isau@uni-dubna.ru%20%D0%B8%D0%BB%D0%B8"/>
+    <hyperlink ref="C90" r:id="rId60" display="mailto:olga_sdo@uni-dubna.ru"/>
+    <hyperlink ref="C91" r:id="rId61" display="mailto:ryabov@uni-dubna.ru"/>
+    <hyperlink ref="C92" r:id="rId62" display="mailto:savvateeva@uni-dubna.ru"/>
+    <hyperlink ref="C93" r:id="rId63" display="mailto:sakrukin.s@uni-dubna.ru"/>
+    <hyperlink ref="C94" r:id="rId64" display="mailto:samoilov@uni-dubna.ru"/>
+    <hyperlink ref="C95" r:id="rId65" display="mailto:samoilov@uni-dubna.ru"/>
+    <hyperlink ref="C96" r:id="rId66" display="mailto:sidorova.o.v@uni-dubna.ru"/>
+    <hyperlink ref="C97" r:id="rId67" display="mailto:smagin.vasily@uni-dubna.ru"/>
+    <hyperlink ref="C98" r:id="rId68" display="mailto:sakrukin.s@uni-dubna.ru"/>
+    <hyperlink ref="C100" r:id="rId69" display="mailto:smirnova.ya.v@uni-dubna.ru"/>
+    <hyperlink ref="C102" r:id="rId70" display="mailto:stankus.a.s@uni-dubna.ru"/>
+    <hyperlink ref="C103" r:id="rId71" display="mailto:streltsova.o.i@uni-dubna.ru"/>
+    <hyperlink ref="C104" r:id="rId72" display="mailto:m_sukhanov@uni-dubna.ru"/>
+    <hyperlink ref="C106" r:id="rId73" display="mailto:tanacheva@uni-dubna.ru"/>
+    <hyperlink ref="C108" r:id="rId74" display="mailto:norinrad.r@yandex.ru"/>
+    <hyperlink ref="C109" r:id="rId75" display="mailto:timalina.e.v@uni-dubna.ru"/>
+    <hyperlink ref="C110" r:id="rId76" display="mailto:timonina@uni-dubna.ru"/>
+    <hyperlink ref="C111" r:id="rId77" display="mailto:tokareva@uni-dubna.ru"/>
+    <hyperlink ref="C112" r:id="rId78" display="mailto:tyupikova@uni-dubna.ru"/>
+    <hyperlink ref="C113" r:id="rId79" display="mailto:tyatyushkina@uni-dubna.ru"/>
+    <hyperlink ref="C114" r:id="rId80" display="mailto:ulyanovsv@uni-dubna.ru"/>
+    <hyperlink ref="C115" r:id="rId81" display="mailto:lulina@uni-dubna.ru"/>
+    <hyperlink ref="C117" r:id="rId82" display="mailto:irina_filozova@uni-dubna.ru"/>
+    <hyperlink ref="C118" r:id="rId83" display="mailto:chere@uni-dubna.ru"/>
+    <hyperlink ref="C4" r:id="rId84" display="mailto:r3doc@mail.ru"/>
+    <hyperlink ref="C26" r:id="rId85" display="mailto:w.dvinskih@gmail.com"/>
+    <hyperlink ref="C49" r:id="rId86" display="mailto:korenkov@jinr.ru"/>
+    <hyperlink ref="C61" r:id="rId87" display="mailto:emazhitova@jinr.ru"/>
+    <hyperlink ref="C99" r:id="rId88" display="mailto:cvc89@mail.ru"/>
+    <hyperlink ref="C119" r:id="rId89" display="mailto:shamef-kate@yandex.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId90"/>
 </worksheet>
 </file>